--- a/workFiles/PalcoTasks2.xlsx
+++ b/workFiles/PalcoTasks2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cread\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FAD5EB-0A18-46CF-9C06-44BF978867E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82F8A2-1589-4906-B0F6-6C2F77CE9A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16247530-0256-475F-92C9-891640E721D7}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{16247530-0256-475F-92C9-891640E721D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,13 +126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,16 +151,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -177,6 +178,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566799</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C160DEC5-4A76-497B-09E6-5A9E1FDDB1F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7272399" cy="6748451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,64 +528,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584E3FE-FC7C-4F37-BE4D-E27B6DD1AE59}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="59.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9B9D8C-5284-4C3F-AB5A-9E48F8670D3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/workFiles/PalcoTasks2.xlsx
+++ b/workFiles/PalcoTasks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cread\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82F8A2-1589-4906-B0F6-6C2F77CE9A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B480880-54BF-4957-B6AB-79296F6D47FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{16247530-0256-475F-92C9-891640E721D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16247530-0256-475F-92C9-891640E721D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -89,6 +89,15 @@
   <si>
     <t>Expected HTTP Status Code: 201 Created
 Expected Behavior: Claim is accepted, validated, and stored in the system, and a payment record is successfully generated. Response includes confirmation with claim_id.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -162,6 +171,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584E3FE-FC7C-4F37-BE4D-E27B6DD1AE59}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,10 +561,11 @@
     <col min="1" max="1" width="59.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="58.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -550,8 +575,11 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,9 +589,14 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,9 +606,16 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -585,8 +625,13 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
